--- a/web/bhajans.xlsx
+++ b/web/bhajans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bhajan\bhajan-server\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bhajan-server\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B77965-D6E2-4022-9F9B-ED19D93834A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD149F-B5DB-49C7-8294-C26795DA63DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="163" yWindow="5229" windowWidth="18351" windowHeight="23057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="163" yWindow="2589" windowWidth="18351" windowHeight="23057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bhajans" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
   <si>
     <t>title</t>
   </si>
@@ -1555,6 +1555,12 @@
   </si>
   <si>
     <t>chords</t>
+  </si>
+  <si>
+    <t>audioPath</t>
+  </si>
+  <si>
+    <t>1.mp3</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2038,6 +2044,9 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2" spans="1:28" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2057,6 +2066,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="24" customHeight="1">
@@ -8526,12 +8538,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.15">
       <c r="A2" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.15">
       <c r="A3" s="32" t="s">
         <v>137</v>
       </c>
